--- a/Lista 13/tempos-ex4-Lista13.xlsx
+++ b/Lista 13/tempos-ex4-Lista13.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e8bd5b6501a72d/Documentos/_My_Projects/Listas-POO/Lista 13/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:4000b_{A6AC9764-4B1F-4304-A116-E79A3446F7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:4000b_{A6AC9764-4B1F-4304-A116-E79A3446F7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86286D09-1C80-4AFD-9D1D-CA8974B66A8B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -49,8 +49,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -126,6 +126,12 @@
     <font>
       <b/>
       <i/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
@@ -227,32 +233,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Accent" xfId="1"/>
-    <cellStyle name="Accent 1" xfId="2"/>
-    <cellStyle name="Accent 2" xfId="3"/>
-    <cellStyle name="Accent 3" xfId="4"/>
-    <cellStyle name="Bad" xfId="5"/>
-    <cellStyle name="Error" xfId="6"/>
-    <cellStyle name="Footnote" xfId="7"/>
-    <cellStyle name="Good" xfId="8"/>
-    <cellStyle name="Heading" xfId="9"/>
-    <cellStyle name="Heading 1" xfId="10"/>
-    <cellStyle name="Heading 2" xfId="11"/>
-    <cellStyle name="Hyperlink" xfId="12"/>
-    <cellStyle name="Neutral" xfId="13"/>
+    <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Bad" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Error" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnote" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Good" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Heading" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Heading 1" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Heading 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Hyperlink" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Neutral" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Note" xfId="14"/>
-    <cellStyle name="Result" xfId="15"/>
-    <cellStyle name="Status" xfId="16"/>
-    <cellStyle name="Text" xfId="17"/>
-    <cellStyle name="Warning" xfId="18"/>
+    <cellStyle name="Note" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Result" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Status" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Text" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Warning" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -563,11 +570,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -649,13 +656,13 @@
         <v>90000</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -666,13 +673,13 @@
         <v>60000</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -683,14 +690,17 @@
         <v>90000</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>25</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="D14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -698,6 +708,7 @@
     <mergeCell ref="C6:E6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
